--- a/bank/cahier_des_charges/CA_COM-TEST_2024_NEW.xlsx
+++ b/bank/cahier_des_charges/CA_COM-TEST_2024_NEW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="815">
   <si>
     <t>TABLEAU DETAILLE DES RECETTES</t>
   </si>
@@ -2382,28 +2382,82 @@
     <t>2188</t>
   </si>
   <si>
-    <t>TABLEAU D'ÉQUILIBRE BUDGÉTAIRE</t>
+    <t>TABLEAU D'EQUILIBRE DU COMPTE ADMINISTRATIF</t>
   </si>
   <si>
     <t>COLLECTIVITE : Commune Test (COM-TEST) - ANNÉE 2024</t>
   </si>
   <si>
-    <t>SECTION FONCTIONNEMENT</t>
-  </si>
-  <si>
-    <t>Total Recettes</t>
-  </si>
-  <si>
-    <t>Total Dépenses</t>
-  </si>
-  <si>
-    <t>SOLDE FONCTIONNEMENT</t>
+    <t>DEPENSES</t>
+  </si>
+  <si>
+    <t>RECETTES</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>REPORT A NOUVEAU (EXCEDENT)</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>REPORT A NOUVEAU (DEFICIT)</t>
+  </si>
+  <si>
+    <t>TOTAL DEPENSES REELLES DE FONCTIONNEMENT</t>
+  </si>
+  <si>
+    <t>TOTAL RECETTES REELLES DE FONCTIONNEMENT</t>
+  </si>
+  <si>
+    <t>TOTAL DEPENSES DE FONCTIONNEMENT (2)</t>
+  </si>
+  <si>
+    <t>TOTAL RECETTES DE FONCTIONNEMENT (1)</t>
+  </si>
+  <si>
+    <t>EXCEDENT DE FONCTIONNEMENT (1) - (2)</t>
+  </si>
+  <si>
+    <t>DEFICIT DE FONCTIONNEMENT (1) - (2)</t>
   </si>
   <si>
     <t>SECTION INVESTISSEMENT</t>
   </si>
   <si>
-    <t>SOLDE INVESTISSEMENT</t>
+    <t>INTITULE</t>
+  </si>
+  <si>
+    <t>DOTATION DE L'ETAT</t>
+  </si>
+  <si>
+    <t>EXCEDENT DE FONCTIONNEMENT CAPITALISE</t>
+  </si>
+  <si>
+    <t>TOTAL DEPENSES REELLES D'INVESTISSEMENT</t>
+  </si>
+  <si>
+    <t>TOTAL RECETTES REELLES D'INVESTISSEMENT</t>
+  </si>
+  <si>
+    <t>TOTAL DEPENSES D'ORDRE D'INVESTISSEMENT</t>
+  </si>
+  <si>
+    <t>TOTAL RECETTES D'ORDRE D'INVESTISSEMENT</t>
+  </si>
+  <si>
+    <t>TOTAL DEPENSES D'INVESTISSEMENT (4)</t>
+  </si>
+  <si>
+    <t>TOTAL RECETTES D'INVESTISSEMENT (3)</t>
+  </si>
+  <si>
+    <t>EXCEDENT D'INVESTISSEMENT (3) - (4)</t>
+  </si>
+  <si>
+    <t>DEFICIT D'INVESTISSEMENT (3) - (4)</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2486,10 @@
     <font/>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2445,16 +2499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9966FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2497,10 +2541,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11150,109 +11200,602 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:K38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="11.55" customWidth="1"/>
+    <col min="2" max="2" width="8.55" customWidth="1"/>
+    <col min="3" max="3" width="44.44" customWidth="1"/>
+    <col min="4" max="4" width="16.33" customWidth="1"/>
+    <col min="5" max="5" width="13.55" customWidth="1"/>
+    <col min="6" max="6" width="14.11" customWidth="1"/>
+    <col min="7" max="7" width="8.55" customWidth="1"/>
+    <col min="8" max="8" width="44.44" customWidth="1"/>
+    <col min="9" max="9" width="18.44" customWidth="1"/>
+    <col min="10" max="10" width="17.33" customWidth="1"/>
+    <col min="11" max="11" width="17.66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>790</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
       <c r="C8" t="s">
-        <v>792</v>
-      </c>
-      <c r="D8" s="14">
-        <v>49900000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="D8" s="16">
+        <v>18800000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>18500000</v>
+      </c>
+      <c r="F8" s="16">
+        <f>D8-E8</f>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4800000</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4500000</v>
+      </c>
+      <c r="K8" s="16">
+        <f>I8-J8</f>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
       <c r="C9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="16">
+        <v>5100000</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4900000</v>
+      </c>
+      <c r="F9" s="16">
+        <f>D9-E9</f>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="16">
+        <v>12200000</v>
+      </c>
+      <c r="J9" s="16">
+        <v>11800000</v>
+      </c>
+      <c r="K9" s="16">
+        <f>I9-J9</f>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="16">
+        <v>8000000</v>
+      </c>
+      <c r="E10" s="16">
+        <v>7800000</v>
+      </c>
+      <c r="F10" s="16">
+        <f>D10-E10</f>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="16">
+        <v>8100000</v>
+      </c>
+      <c r="J10" s="16">
+        <v>7900000</v>
+      </c>
+      <c r="K10" s="16">
+        <f>I10-J10</f>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" s="16">
+        <v>10500000</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10200000</v>
+      </c>
+      <c r="F11" s="16">
+        <f>D11-E11</f>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3000000</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2850000</v>
+      </c>
+      <c r="K11" s="16">
+        <f>I11-J11</f>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="16">
+        <v>950000</v>
+      </c>
+      <c r="E12" s="16">
+        <v>950000</v>
+      </c>
+      <c r="F12" s="16">
+        <f>D12-E12</f>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="16">
+        <v>17000000</v>
+      </c>
+      <c r="J12" s="16">
+        <v>16500000</v>
+      </c>
+      <c r="K12" s="16">
+        <f>I12-J12</f>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4100000</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3900000</v>
+      </c>
+      <c r="F13" s="16">
+        <f>D13-E13</f>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="16">
+        <v>480000</v>
+      </c>
+      <c r="J13" s="16">
+        <v>450000</v>
+      </c>
+      <c r="K13" s="16">
+        <f>I13-J13</f>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" t="s">
+        <v>574</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="16">
+        <f>D14-E14</f>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="16">
+        <v>6200000</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5900000</v>
+      </c>
+      <c r="K14" s="16">
+        <f>I14-J14</f>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1500000</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1450000</v>
+      </c>
+      <c r="F15" s="16">
+        <f>D15-E15</f>
+      </c>
+      <c r="G15" t="s">
         <v>793</v>
       </c>
-      <c r="D9" s="14">
-        <v>49700000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="H15" t="s">
         <v>794</v>
       </c>
-      <c r="D10" s="15">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>795</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>792</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C16" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <f>D26-E26</f>
+      </c>
+      <c r="G26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <f>I26-J26</f>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <f>D27-E27</f>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <f>I27-J27</f>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>669</v>
+      </c>
+      <c r="C28" t="s">
+        <v>670</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <f>D28-E28</f>
+      </c>
+      <c r="G28" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" t="s">
+        <v>245</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <f>I28-J28</f>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <f>I29-J29</f>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C30" t="s">
+        <v>796</v>
+      </c>
+      <c r="G30" t="s">
         <v>793</v>
       </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B13:H13"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
